--- a/confusionMatrixColoured.xlsx
+++ b/confusionMatrixColoured.xlsx
@@ -224,7 +224,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -236,48 +236,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -591,7 +549,7 @@
   <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8195,15 +8153,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AX2 B50:AW50 B49:AV49 AX49 B48:AU48 AW48:AX48 B47:AT47 AV47:AX47 B46:AS46 AU46:AX46 B44:AX45 B43:AP43 AR43:AX43 B40:AX42 B39:AL39 AN39:AX39 B38:AK38 AM38:AX38 B37:AJ37 AL37:AX37 B36:AX36 B35:AH35 AJ35:AX35 B34:AG34 AI34:AX34 B33:AF33 AH33:AX33 B32:AE32 AG32:AX32 B31:AD31 AF31:AX31 B30:AC30 AE30:AX30 B29:AB29 AD29:AX29 B28:AA28 AC28:AX28 B27:Z27 AB27:AX27 B26:Y26 AA26:AX26 B25:X25 Z25:AX25 B24:AX24 B23:V23 X23:AX23 B22:U22 W22:AX22 B21:AX21 B20:S20 U20:AX20 B19:R19 T19:AX19 B18:Q18 S18:AX18 B17:P17 R17:AX17 B16:O16 Q16:AX16 B15:AX15 B14:M14 O14:AX14 B13:L13 N13:AX13 B12:K12 M12:AX12 B11:J11 L11:AX11 B10:I10 K10:AX10 B9:H9 J9:AX9 B8:G8 I8:AX8 B7:F7 H7:AX7 B6:E6 G6:AX6 B5:D5 F5:AX5 B4:C4 E4:AX4 B3 D3:AX3">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>1</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
       <formula>5</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>50</formula>
       <formula>3000</formula>
     </cfRule>
